--- a/bin/xlsx/Mail.xlsx
+++ b/bin/xlsx/Mail.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fenghaiyu/workspace/simple_game_server/bin/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA5B197-EE5E-1D49-ACD0-53A6D2BD38B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mail" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -48,26 +54,10 @@
     <t>金币</t>
   </si>
   <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,13 +87,17 @@
   </si>
   <si>
     <t>1,1;2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3;4,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -218,7 +212,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -234,7 +228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -276,7 +270,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,9 +302,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,6 +354,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,46 +547,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="7.25" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5" customWidth="1"/>
-    <col min="18" max="18" width="20.125" customWidth="1"/>
-    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="20.1640625" customWidth="1"/>
+    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:27" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,17 +596,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -594,18 +621,12 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="4"/>
+      <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:28">
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -616,19 +637,16 @@
         <v>5</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:27" ht="15">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -638,18 +656,16 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -666,13 +682,12 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:27" ht="15">
       <c r="A5" s="7">
         <v>100001</v>
       </c>
@@ -686,14 +701,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -713,8 +726,27 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="8"/>
+      <c r="AA5" s="8"/>
+    </row>
+    <row r="6" spans="1:27" ht="15">
+      <c r="A6" s="7">
+        <v>100002</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -724,12 +756,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -737,12 +769,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
